--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d1007413-Reviews-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Knights-Inn-Woodland-Hills.h1856157.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,661 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r553077949-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>1007413</t>
+  </si>
+  <si>
+    <t>553077949</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Noisy room</t>
+  </si>
+  <si>
+    <t>I am not talking about the noise cause by traffic outside, which is normal because this hotel is located in an area with busy traffic. I am talking about the noise which seemed to be from a water tube inside the wall. During late night the noise was so loud we could not fall asleep. Maybe this was caused by someone taking a shower next door, a shower which lasted 1.5 hours? Fortunately the noise stopped before 2AM.A lot of reviews below said that this hotel is cheap, but not for our stay which was on a Saturday night. Also, they did not give us enough towels and shampoo. Maybe we should have asked for more but they did not told us to ask. The room is also too small for 2 queen beds.The up side is that this hotel is clean. That is why I give it two points instead of one.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I am not talking about the noise cause by traffic outside, which is normal because this hotel is located in an area with busy traffic. I am talking about the noise which seemed to be from a water tube inside the wall. During late night the noise was so loud we could not fall asleep. Maybe this was caused by someone taking a shower next door, a shower which lasted 1.5 hours? Fortunately the noise stopped before 2AM.A lot of reviews below said that this hotel is cheap, but not for our stay which was on a Saturday night. Also, they did not give us enough towels and shampoo. Maybe we should have asked for more but they did not told us to ask. The room is also too small for 2 queen beds.The up side is that this hotel is clean. That is why I give it two points instead of one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r547096549-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547096549</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Yes, good value, and some hidden advantages, but PLEASE drop the "continental breakfast",it makes you look cheap!</t>
+  </si>
+  <si>
+    <t>First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but...First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but did not prevent me from having a good nights sleep. One thing the management can do to improve the image is simply drop the FREE CONTINENTAL BREAKFAST- placing a few muffins on a small table, with a pot of coffee, with two chairs in the tiny lobby, makes all involved in running the place look foolish. Richard HurleyMoreShow less</t>
+  </si>
+  <si>
+    <t>First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but...First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but did not prevent me from having a good nights sleep. One thing the management can do to improve the image is simply drop the FREE CONTINENTAL BREAKFAST- placing a few muffins on a small table, with a pot of coffee, with two chairs in the tiny lobby, makes all involved in running the place look foolish. Richard HurleyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r540556704-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540556704</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Affordable stay</t>
+  </si>
+  <si>
+    <t>Went to SoCal to visit a friend and Knight's Inn had the best value for the price.  I was given a very quiet corner room and definitely enjoyed my sleep.  The breakfast consists of muffins, juice and coffee which was sufficient for me.  The only downside was the parking lot.  It's super cramped and depending on how other people park, may become a hazard for your vehicle.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r500075330-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>500075330</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>If you have an injury or disability, this is not the place for you...</t>
+  </si>
+  <si>
+    <t>Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car...Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car as I was going to Six Flags the next day and didn't want to take the chance of a break-in at the park. The room itself was okay. It was a little on the small side, especially to other rooms I stayed in the other 10 nights. The bed was the least comfortable of the hotels I stayed in, but it wasn't horrible. I did sleep, but had a little hip pain and tossed some. There was a fridge which is always a plus, but no coffee maker, which I don't like, but I should've made sure. The fact that they don't provide for people with disabilities (I saw one room by the office with a wheelchair symbol on it, but like I said, when I explained my situation no accommodations were made and I did suffer for it).I felt too tired to go down to the pool and just had a pizza in the room the first night. The place is quiet, but the tv was horrible. It kept scrambling and cutting out on certain channels (even the local ones) and each one would take forever to load.I did go down and get coffee in the office on the second day and it was very good coffee. The man behind the desk was very nice and we did chat some, but I would still never stay here again because of the physical struggle. The room was clean and there is a burger place next door. A Starbucks is close by and a pet store and my new favorite grocery store in the world, Sprouts. So many healthy snacks there.I ate grass fed beef jerky and organic coconut cookie treats for dinner :)On the second day when I needed to check out and move hotels, I was again carting heavy boxes down the stairs with no help. Even though the location was pretty good, the room clean and reasonably comfortable, the lack of help I received when I really needed it would keep me from EVER staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car...Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car as I was going to Six Flags the next day and didn't want to take the chance of a break-in at the park. The room itself was okay. It was a little on the small side, especially to other rooms I stayed in the other 10 nights. The bed was the least comfortable of the hotels I stayed in, but it wasn't horrible. I did sleep, but had a little hip pain and tossed some. There was a fridge which is always a plus, but no coffee maker, which I don't like, but I should've made sure. The fact that they don't provide for people with disabilities (I saw one room by the office with a wheelchair symbol on it, but like I said, when I explained my situation no accommodations were made and I did suffer for it).I felt too tired to go down to the pool and just had a pizza in the room the first night. The place is quiet, but the tv was horrible. It kept scrambling and cutting out on certain channels (even the local ones) and each one would take forever to load.I did go down and get coffee in the office on the second day and it was very good coffee. The man behind the desk was very nice and we did chat some, but I would still never stay here again because of the physical struggle. The room was clean and there is a burger place next door. A Starbucks is close by and a pet store and my new favorite grocery store in the world, Sprouts. So many healthy snacks there.I ate grass fed beef jerky and organic coconut cookie treats for dinner :)On the second day when I needed to check out and move hotels, I was again carting heavy boxes down the stairs with no help. Even though the location was pretty good, the room clean and reasonably comfortable, the lack of help I received when I really needed it would keep me from EVER staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r488875738-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>488875738</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Visiting the area</t>
+  </si>
+  <si>
+    <t>Great bargain for the price.  I would only recommend for a couple of days stay.  The staff is very friendly and accommodating and the room was very clean and cleaned well each day.  There is no hair dryer or iron in the room but you can get them at the front desk.  The room is very dreary.  It needs updating and more lighting.  It has a small fridge and microwave.  The wifi, though free, is spotty at best.  But, it was better than none.  The parking is a bit tight, we worried each night that we would have a spot to park in.  There is no breakfast but there is coffee and muffins at the front desk and the coffee is excellent!  There was some commotion outside the rooms one night and we did see some things that we thought were inappropriate.  We would return for one or two nights and only during the week.    The rating I am giving is for the staff and the cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Great bargain for the price.  I would only recommend for a couple of days stay.  The staff is very friendly and accommodating and the room was very clean and cleaned well each day.  There is no hair dryer or iron in the room but you can get them at the front desk.  The room is very dreary.  It needs updating and more lighting.  It has a small fridge and microwave.  The wifi, though free, is spotty at best.  But, it was better than none.  The parking is a bit tight, we worried each night that we would have a spot to park in.  There is no breakfast but there is coffee and muffins at the front desk and the coffee is excellent!  There was some commotion outside the rooms one night and we did see some things that we thought were inappropriate.  We would return for one or two nights and only during the week.    The rating I am giving is for the staff and the cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r486596048-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486596048</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Cheap all the way</t>
+  </si>
+  <si>
+    <t>Cheap hotel well not that cheap. I have stayed at places that cost less but looked better and acted better. Continental breakfast is a joke. It's coffee and muffins. The morning person, Kim, was the best. She had a great attitude and was very helpful. The afternoon person was not so happy. He was very short with customers. Room was over sprayed with deoderizer. Refridge sat directly on floor and you could barely open the door. Next time I will choose a different hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r450967417-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>450967417</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Did the job</t>
+  </si>
+  <si>
+    <t>We booked this place via an app on the night of booking as we had miscalculated the distances involved when travelling the coast road in California.  That's an easy thing to do! The check in was easy.  The room was clean and did its job as a comfortable place to rest for 2 weary travellers.  It's located well as there are plenty of shops and restaurants nearby.  The breakfast was a cup of coffee and a sticky bun but that was not a problem as sometimes less is more when you are on a US type diet whilst on the road. There was a small jacuzzi in the centre part of this motel.  If only we had the time to use it- nice little add on though. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We booked this place via an app on the night of booking as we had miscalculated the distances involved when travelling the coast road in California.  That's an easy thing to do! The check in was easy.  The room was clean and did its job as a comfortable place to rest for 2 weary travellers.  It's located well as there are plenty of shops and restaurants nearby.  The breakfast was a cup of coffee and a sticky bun but that was not a problem as sometimes less is more when you are on a US type diet whilst on the road. There was a small jacuzzi in the centre part of this motel.  If only we had the time to use it- nice little add on though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r448287824-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>448287824</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent Value - Simple, Clean Place!</t>
+  </si>
+  <si>
+    <t>Well, looks like the secret is out, kind of...  When I first started staying here many years ago, it was a hidden gem.  I always visit in December to visit Los Angeles and I have friends and family in the valley, so this location is excellent.  It is considerably cheaper than other hotels/motels in the area.  Or it was, anyway.  Now it's not among the cheapest but it's still less expensive than other GOOD hotels/motels.  Seems the only thing you can get cheaper or at the same price level are places in less-than-desirable areas and places that are not so well kept.
+Way back when, I could reserve several nights just day or few days before arrival.  The past several years that is impossible - I have to book this place weeks in advance to have a chance at getting the 4-5 nights I typically stay.  I think people have caught on that this is one of the absolute best values you can find.
+It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff...Well, looks like the secret is out, kind of...  When I first started staying here many years ago, it was a hidden gem.  I always visit in December to visit Los Angeles and I have friends and family in the valley, so this location is excellent.  It is considerably cheaper than other hotels/motels in the area.  Or it was, anyway.  Now it's not among the cheapest but it's still less expensive than other GOOD hotels/motels.  Seems the only thing you can get cheaper or at the same price level are places in less-than-desirable areas and places that are not so well kept.Way back when, I could reserve several nights just day or few days before arrival.  The past several years that is impossible - I have to book this place weeks in advance to have a chance at getting the 4-5 nights I typically stay.  I think people have caught on that this is one of the absolute best values you can find.It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff are courteous - not overly friendly but courteous and efficient.  The prices are great.  The rooms are simple, spacious, very clean and fully functional - I don't ask for more than this.  My stay is always very comfortable here.  The parking is adequate - a little tight but it's fine.  It is a very easy and convenient place to stay.The location is excellent.  Woodland Hills is such a nice little town and there are many stores and restaurants that you can walk to.  Lots of good restaurants, actually.  There is a burger place that is practically part of this motel, and it is very good (Boulevard Burgers). It is a nice suburban town and feels very safe to me, and I've stayed there many times.  Wonderful location.Rooms are simple but nice.  Flat screen TV with lots of channels (I'm not there to watch TV but I get plenty to watch in my downtime).  Comfortable beds and bedding.  Simple toiletries are provided - somewhat nicer than "basic".  Fridge and microwave in the room are very helpful - I keep my fridge stocked with water which comes in very handy.  Water pressure in shower is good, shower head is very low - I'm 5'7" and have to dip my head to get under the shower but it's easy enough.  Free WiFi was adequate - a few times very slow, but mostly it was normal, quick.If you want comfortable, simple, clean accommodations in the Valley then this is the place to be.  Convenient location on a (somewhat) quiet part of Ventura Blvd, easy to get around from there.  It is my favorite place to stay while visiting.  If I needed more in the way of amenities I would look elsewhere and I would plan on paying considerably more ($50+ per night).  But this is a perfect, simple, clean, comfortable place.  They offer coffee and muffins in the morning - I drink the coffee and skip the muffins (they're not that good, in my opinion) but that's fine because I can pick up a cheap pastry somewhere else for the value I'm getting by staying here.I would recommend it to anyone, just with the caveat that you set your expectations for a no-frills place.  They are the best at being what they are.  They do it perfectly.  I look forward to my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Well, looks like the secret is out, kind of...  When I first started staying here many years ago, it was a hidden gem.  I always visit in December to visit Los Angeles and I have friends and family in the valley, so this location is excellent.  It is considerably cheaper than other hotels/motels in the area.  Or it was, anyway.  Now it's not among the cheapest but it's still less expensive than other GOOD hotels/motels.  Seems the only thing you can get cheaper or at the same price level are places in less-than-desirable areas and places that are not so well kept.
+Way back when, I could reserve several nights just day or few days before arrival.  The past several years that is impossible - I have to book this place weeks in advance to have a chance at getting the 4-5 nights I typically stay.  I think people have caught on that this is one of the absolute best values you can find.
+It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff...Well, looks like the secret is out, kind of...  When I first started staying here many years ago, it was a hidden gem.  I always visit in December to visit Los Angeles and I have friends and family in the valley, so this location is excellent.  It is considerably cheaper than other hotels/motels in the area.  Or it was, anyway.  Now it's not among the cheapest but it's still less expensive than other GOOD hotels/motels.  Seems the only thing you can get cheaper or at the same price level are places in less-than-desirable areas and places that are not so well kept.Way back when, I could reserve several nights just day or few days before arrival.  The past several years that is impossible - I have to book this place weeks in advance to have a chance at getting the 4-5 nights I typically stay.  I think people have caught on that this is one of the absolute best values you can find.It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff are courteous - not overly friendly but courteous and efficient.  The prices are great.  The rooms are simple, spacious, very clean and fully functional - I don't ask for more than this.  My stay is always very comfortable here.  The parking is adequate - a little tight but it's fine.  It is a very easy and convenient place to stay.The location is excellent.  Woodland Hills is such a nice little town and there are many stores and restaurants that you can walk to.  Lots of good restaurants, actually.  There is a burger place that is practically part of this motel, and it is very good (Boulevard Burgers). It is a nice suburban town and feels very safe to me, and I've stayed there many times.  Wonderful location.Rooms are simple but nice.  Flat screen TV with lots of channels (I'm not there to watch TV but I get plenty to watch in my downtime).  Comfortable beds and bedding.  Simple toiletries are provided - somewhat nicer than "basic".  Fridge and microwave in the room are very helpful - I keep my fridge stocked with water which comes in very handy.  Water pressure in shower is good, shower head is very low - I'm 5'7" and have to dip my head to get under the shower but it's easy enough.  Free WiFi was adequate - a few times very slow, but mostly it was normal, quick.If you want comfortable, simple, clean accommodations in the Valley then this is the place to be.  Convenient location on a (somewhat) quiet part of Ventura Blvd, easy to get around from there.  It is my favorite place to stay while visiting.  If I needed more in the way of amenities I would look elsewhere and I would plan on paying considerably more ($50+ per night).  But this is a perfect, simple, clean, comfortable place.  They offer coffee and muffins in the morning - I drink the coffee and skip the muffins (they're not that good, in my opinion) but that's fine because I can pick up a cheap pastry somewhere else for the value I'm getting by staying here.I would recommend it to anyone, just with the caveat that you set your expectations for a no-frills place.  They are the best at being what they are.  They do it perfectly.  I look forward to my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r446566045-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>446566045</t>
+  </si>
+  <si>
+    <t>12/25/2016</t>
+  </si>
+  <si>
+    <t>Nice stay in LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was nice, clean room, a bit of a chemical smell when I got into the room, I let it air out and was fine after. There were guests in the hot tub enjoying the cold weather, I opted to look for food and found an assortment of restaurants on Ventura Blvd within walking distance, including 2 supermarkets. The staff was very friendly and helpful, will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r428753380-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428753380</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Good place to stop on your longer journeys</t>
+  </si>
+  <si>
+    <t>Basic motel but has everything you need. Fridge and microwave in room. Free wifi, swimming pool (not heated) and hot tub. Free parking. Easy to find from freeway. Places to eat very close so no need to take the car out.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r419002231-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>419002231</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>The property is reasonably maintained and kept clean. The room had what was expected and the beds were comfortable enough. HBO and ESPN are offered, the other channels are over the air, but since Los Angeles has a wide array of subchannels, there is a good selection. An outdoor pool and hot tub are available. Breakfast is limited to coffee and muffins. The service was competent, not exactly friendly. A reasonable, budget friendly stay if on the NW side of LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r394041949-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>394041949</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Clean, safe room</t>
+  </si>
+  <si>
+    <t>Room was clean, quiet, felt like it was a safe neighborhood. Lots of restaurants and shops in walking distance. Pool is about the size of a postage stamp, but for cooling down, would work.  Room probably needed updating, but for the price, it was a good value.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r326000318-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>326000318</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Good value.</t>
+  </si>
+  <si>
+    <t>The location is very convenient, right off the 101. Our flight from LAX was very late so we checked in about 3am. The woman at the desk was very sweet and helpful. The motel is old but I felt it was clean. Continental breakfast consisted of coffee, tea and orange juice in the lobby/office. The also had muffins which I was pleasantly surprised to find were from Costco so they were huge and yummy. The pool area looked nice.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r319340598-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>319340598</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Ok for a night</t>
+  </si>
+  <si>
+    <t>This mote is very ok. We have been there with the kids for one night. The rooms are clean the personal is very friendly, the price is ok and the neighborhood is quite and save. The only negative is that there are only smoking rooms with two queen size beds. But the smoke was not smelling almost... The price is also ok. After the night we have visit Universal Studios and to come there we have taken the Mulholland Dr, this was really nice...</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r299511929-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>299511929</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Comfortable, nice stay in the the valley area of LA</t>
+  </si>
+  <si>
+    <t>Overall good location, neat exteriors, very pleasant and helpful front desk personnel. Walking distance to restaurants and stores. Easy access to the 101 freeway in LA. Good experience, would book again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r286099592-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>286099592</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Good value for money</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights between Las Vegas and Palm Springs.  Pretty basic but clean and comfortable.  Further from LA than I expected in quite a nice suburb but with not much in the way of restaurants.  Ate at a nearby Chinese which was very nice and reasonably priced.Breakfast coffee and muffins not really to my taste but there is a good bakery nearby whose coffee is better and the French pastries are fresh out of the oven.Our rooms had been paid for in advance by our travel company but reception were adamant that they had only been reserved but not paid for and insisted that we paid.  However an e mail to our agent and they made some calls, resulted in a refund and an apology.The pool is very small but is ok to cool off in.  There is also a small spa and some poolside seating.If you are looking for cheap and cheerful accommodation in the LA vicinity with parking, then I would recommend this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights between Las Vegas and Palm Springs.  Pretty basic but clean and comfortable.  Further from LA than I expected in quite a nice suburb but with not much in the way of restaurants.  Ate at a nearby Chinese which was very nice and reasonably priced.Breakfast coffee and muffins not really to my taste but there is a good bakery nearby whose coffee is better and the French pastries are fresh out of the oven.Our rooms had been paid for in advance by our travel company but reception were adamant that they had only been reserved but not paid for and insisted that we paid.  However an e mail to our agent and they made some calls, resulted in a refund and an apology.The pool is very small but is ok to cool off in.  There is also a small spa and some poolside seating.If you are looking for cheap and cheerful accommodation in the LA vicinity with parking, then I would recommend this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r271550931-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>271550931</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Bad breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's nothing worse than expecting something and not getting it! It clearly states on this page and in the hotel lobby 'continental breakfast' (the reason why we chose this hotel)The 'continental breakfast' consisted of a coffee percolator and a tray with 4 sweet muffins on it. No toast, no cereal, no fruit. We walked out and went up to a diner across the street.. Meaning we spent and extra $70 on breakfast that we shouldn't have!Other than that it was clean and the wi fi worked well. A bit old but what do you expect for $100 a night. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r265338057-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>265338057</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Place for the night...</t>
+  </si>
+  <si>
+    <t>We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my...We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my legs. Being on my back was a tiny bit better, but really, they needs pads. I am very spoiled by the Wynham "heavenly" beds that other brands of theirs carry and why I thought this place would have them, was beyond me. I must have been misled somewhere along the line. For this reason alone, I would never recommend this property. My husband who can generally tolerate any bed, said never again as well. The "continental breakfast" was a pot of coffee on a burner and 4 muffins to chose from...that was it. Good thing, there are lots of places close by. Wi-fi was intermittent at best, though free. I turned it off as I have free data and the time it spent searching for a signal was annoying. Location is good, as just off the 101.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my...We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my legs. Being on my back was a tiny bit better, but really, they needs pads. I am very spoiled by the Wynham "heavenly" beds that other brands of theirs carry and why I thought this place would have them, was beyond me. I must have been misled somewhere along the line. For this reason alone, I would never recommend this property. My husband who can generally tolerate any bed, said never again as well. The "continental breakfast" was a pot of coffee on a burner and 4 muffins to chose from...that was it. Good thing, there are lots of places close by. Wi-fi was intermittent at best, though free. I turned it off as I have free data and the time it spent searching for a signal was annoying. Location is good, as just off the 101.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r230926285-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230926285</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient, spotlessly clean and helpful management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a two-night stay at this inn. It was very well priced and in a convenient location with plenty of amenities close by and ample parking outside the property. It provided a great base for touring the LA area.Breakfast was included and available in the hotel lobby. Fresh orange juice, freshly made coffee and a choice of muffins including our favourite blueberry. The room was spotlessly clean with quality bed linen and fluffy towels.We found the staff to be very pleasant and helpful, especially Cornelia.If we are in the area again we will definitely return. Recommend </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r228876636-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>228876636</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r228378901-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>228378901</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r225799735-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>225799735</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Black hole of Calcutta in LA</t>
+  </si>
+  <si>
+    <t>Chose this decrepit hotel for its location -- bad mistake!  The room was tiny, dark, and in dire need of repaint and remodeling.  Hello 1960's!  To make matters worse, the stsff wasunpleasant and unhelpful. No wonder they require full payment in advance (does any other hotel in America have such a requirement?) --wouod anyone ever pay for this place otherwise?  And there is a puddle near my home that is larger than what they laughingly call "the pool."I suggest staying almost anywhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r225316498-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>225316498</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r223651608-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>223651608</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r206674427-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>206674427</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r199947140-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>199947140</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r196199413-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>196199413</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have stayed here a number of times and if necessary would stay again and recommend it as well       </t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r174846575-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174846575</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>OK for a cheap motel</t>
+  </si>
+  <si>
+    <t>Guy at the desk was friendly. No cable, only local channels. Continental breakfast consisted of stale Costco muffins and the coffee creamer was that awful powdered stuff. Have you ever read the ingredients?? I'd stay again just for the cheapness but really? Not impressed. It was just OK.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r164640220-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>164640220</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>No Frills, but Great Value</t>
+  </si>
+  <si>
+    <t>This motel is a family run business. It's in a great neighborhood, walking distance to anything you need, and it felt safe to me. The rooms are clean but a little dated, if that matters to you. I thought it was a bargain. It was quiet enough that I slept fine on two weeknights I stayed.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r162135899-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162135899</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Cheap, Clean, but Pretty Tight</t>
+  </si>
+  <si>
+    <t>We were traveling on our way to Camarillo, California and thought we would book ahead. Using a link from another site, I booked a room at the Knights Inn in Woodland Hills. It was easy to find, clean, cheap, and gave easy access to coffee shops and restaurants. But three things were negatives. One - the room was really small and out dated. Two - the outside wall and doorway seemed paper thin and we were awakened by loud noise during the night. Three - the pool was in poor condition - actually totally in disrepair. Would I stay there again? Yes but only if my budget dictated cheap motels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We were traveling on our way to Camarillo, California and thought we would book ahead. Using a link from another site, I booked a room at the Knights Inn in Woodland Hills. It was easy to find, clean, cheap, and gave easy access to coffee shops and restaurants. But three things were negatives. One - the room was really small and out dated. Two - the outside wall and doorway seemed paper thin and we were awakened by loud noise during the night. Three - the pool was in poor condition - actually totally in disrepair. Would I stay there again? Yes but only if my budget dictated cheap motels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r148108720-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>148108720</t>
+  </si>
+  <si>
+    <t>12/26/2012</t>
+  </si>
+  <si>
+    <t>ok as a place to sleep</t>
+  </si>
+  <si>
+    <t>Spent two nights here in Dec 2012.  The location is very convenient to the 101 freeway, and about 30 minutes from west LA &amp; Hollywood (assuming traffic isn't horrible).  The room was clean, and in good condition (although a bit dated as a few others have noted).  Check-in &amp; check-out was fast &amp; efficient.  The free wifi worked well (username/password was on a slip of paper in the room).  TV was limited to mostly basic cable channels (not that I care, i didn't watch it much).  The bed was fairly comfortable, but nothing fancy.  It was a bit noisy at night, as the property is not set back from the street at all.  The "free breakfast" was the only disappointment.  It consisted of coffee, fake orange juice (tasted like a Hi-C juice packet), and some huge, tasteless muffins.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Spent two nights here in Dec 2012.  The location is very convenient to the 101 freeway, and about 30 minutes from west LA &amp; Hollywood (assuming traffic isn't horrible).  The room was clean, and in good condition (although a bit dated as a few others have noted).  Check-in &amp; check-out was fast &amp; efficient.  The free wifi worked well (username/password was on a slip of paper in the room).  TV was limited to mostly basic cable channels (not that I care, i didn't watch it much).  The bed was fairly comfortable, but nothing fancy.  It was a bit noisy at night, as the property is not set back from the street at all.  The "free breakfast" was the only disappointment.  It consisted of coffee, fake orange juice (tasted like a Hi-C juice packet), and some huge, tasteless muffins.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r124280386-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>124280386</t>
+  </si>
+  <si>
+    <t>02/07/2012</t>
+  </si>
+  <si>
+    <t>Clean/nice motel</t>
+  </si>
+  <si>
+    <t>It's an old property, but rather well kept. The room (mine was on a second floor) was VERY clean. And so was the bathroom. The room is small, but I did not care, since I stayed here only for 1 night. There is a mini-fridge (which is so small, it reminds me of a cube) and a microwave in a room, which is very convenient. The TV is old, but I did not care. However, 2 out of 3 lightfixtures did not work in a room (bad bulbs?). There was no shampoo in a shower/bathtub, only soap. Did not care much, since I always bring my own toiletries. In my opinion, the hotel needs major renovation in terms of new double pane windows and newer TV/phones/fixtures. But if you stay here just for the night - it's ok.My only complain - the mattress was rather hard, and pillows were hard and very thin. Check in/out was a breeze. There is a free WiFi - just ask the receptionist for the password. Check out Japanese sushi restaurant next door to the hotel - Tatsuki - I swear, it's the best sushi place in LA. And prices are very inexpensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>It's an old property, but rather well kept. The room (mine was on a second floor) was VERY clean. And so was the bathroom. The room is small, but I did not care, since I stayed here only for 1 night. There is a mini-fridge (which is so small, it reminds me of a cube) and a microwave in a room, which is very convenient. The TV is old, but I did not care. However, 2 out of 3 lightfixtures did not work in a room (bad bulbs?). There was no shampoo in a shower/bathtub, only soap. Did not care much, since I always bring my own toiletries. In my opinion, the hotel needs major renovation in terms of new double pane windows and newer TV/phones/fixtures. But if you stay here just for the night - it's ok.My only complain - the mattress was rather hard, and pillows were hard and very thin. Check in/out was a breeze. There is a free WiFi - just ask the receptionist for the password. Check out Japanese sushi restaurant next door to the hotel - Tatsuki - I swear, it's the best sushi place in LA. And prices are very inexpensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r121596033-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>121596033</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Clean, friendly and great value</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night in December 2011 while passing through and found the place exactly like most people had reviewed, clean, gret location, friendly staff at checkin and great value when booked through Hotels.com. I then the guys name on the desk was Adam, he has worked there for 10 years and was a pleasure to deal with. I stayed in the Extended Stay down the street and in my opinion this place is cleaner, much better manged and has a warmer, friendlier feel all round.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r99141883-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>99141883</t>
+  </si>
+  <si>
+    <t>03/06/2011</t>
+  </si>
+  <si>
+    <t>good location, decent price</t>
+  </si>
+  <si>
+    <t>cute enough little hotel. stayed with 20 yo son in Feb-Mar 2011. cute courtyard with small pool and hot tube.  not open in winter?? Room was average. shower tub , toilet seperate from sink.  hot water ok most mornings , nearly ran out on 1st day.  has tv/remote, no radio or clock.  had small fridge and microwave, both on extension cord that was pobobly a fire hazzard. reasonably close to west la attractions. 24 mile to Venice Beach and Santa Monica. 19 mi to Hollywood, 15 mi to Getty museum and Universal Studios. 19 mi to Hollywood.  Of course all travel times are outrageous compared to what I'm use to in Michigan. Maid service was good, we had no real need to find out if they would be helpful in a needy situation.  Free wireless worked fine. business/residential neighborhood was not scary.  very close to 101.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>cute enough little hotel. stayed with 20 yo son in Feb-Mar 2011. cute courtyard with small pool and hot tube.  not open in winter?? Room was average. shower tub , toilet seperate from sink.  hot water ok most mornings , nearly ran out on 1st day.  has tv/remote, no radio or clock.  had small fridge and microwave, both on extension cord that was pobobly a fire hazzard. reasonably close to west la attractions. 24 mile to Venice Beach and Santa Monica. 19 mi to Hollywood, 15 mi to Getty museum and Universal Studios. 19 mi to Hollywood.  Of course all travel times are outrageous compared to what I'm use to in Michigan. Maid service was good, we had no real need to find out if they would be helpful in a needy situation.  Free wireless worked fine. business/residential neighborhood was not scary.  very close to 101.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r77479485-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>77479485</t>
+  </si>
+  <si>
+    <t>08/30/2010</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here 3 nights while she was working in LA.  The location is great.  There are lots of stores and restaurants very close by (plus two shopping malls).  It's right off the 101 (but not so close you can hear the freeway).  The staff was exceptionally nice, the room was clean (except the carpet was dirty....the bottom of my socks were quickly black), and the room was cozy.  It was very quiet at night.   There is a small pool and jacuzzi.  The continental breakfast consists of coffee/tea and donuts/muffins.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r37745160-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>37745160</t>
+  </si>
+  <si>
+    <t>08/15/2009</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, basic, but air conditioning is spotty</t>
+  </si>
+  <si>
+    <t>This is your basic hotel on busy Ventura Boulevard in the San Fernando Valley. We had a room with two queen beds, one for me and my wife, one for my daughter.  We slept near the air conditioning unit for the room, and the only two choices seemed to be freeze, or just circulate air and be hot and muggy.  As a result it wasn't the most comfortable of nights.  However, in this hotel's favor, it's close to a lot of the valley, it's pretty reasonably priced. The people running the desk are helpful.  The area is the usual LA sprawl; nothing to recommend it other than location.  The "continental breakfast" consists of coffee and some reasonable-looking muffins; nothing else.  Like the hotel, very basic.  There are an enormous number of breakfast choices within one block of the hotel, ranging from classic full-blown Jewish delicatessens to bagels. (It's a heavily Jewish area of the city.)The bathroom had plenty of towels, but only soap. Bring your own shampoo. There's a small pool in between the rooms; nothing special.I'd summarize it as an older, clean hotel in a basic part of LA.  Don't expect too much and you won't be disappointed.  I'd stay again, but I'd want to stay in a room with just one bed so I could be further from the air condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>This is your basic hotel on busy Ventura Boulevard in the San Fernando Valley. We had a room with two queen beds, one for me and my wife, one for my daughter.  We slept near the air conditioning unit for the room, and the only two choices seemed to be freeze, or just circulate air and be hot and muggy.  As a result it wasn't the most comfortable of nights.  However, in this hotel's favor, it's close to a lot of the valley, it's pretty reasonably priced. The people running the desk are helpful.  The area is the usual LA sprawl; nothing to recommend it other than location.  The "continental breakfast" consists of coffee and some reasonable-looking muffins; nothing else.  Like the hotel, very basic.  There are an enormous number of breakfast choices within one block of the hotel, ranging from classic full-blown Jewish delicatessens to bagels. (It's a heavily Jewish area of the city.)The bathroom had plenty of towels, but only soap. Bring your own shampoo. There's a small pool in between the rooms; nothing special.I'd summarize it as an older, clean hotel in a basic part of LA.  Don't expect too much and you won't be disappointed.  I'd stay again, but I'd want to stay in a room with just one bed so I could be further from the air condition.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1303,2248 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>193</v>
+      </c>
+      <c r="J27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>102</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>213</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>219</v>
+      </c>
+      <c r="O31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" t="s">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>229</v>
+      </c>
+      <c r="J33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>233</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>240</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>253</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>24812</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_461.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>VIPofHotels</t>
+  </si>
+  <si>
     <t>07/06/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I am not talking about the noise cause by traffic outside, which is normal because this hotel is located in an area with busy traffic. I am talking about the noise which seemed to be from a water tube inside the wall. During late night the noise was so loud we could not fall asleep. Maybe this was caused by someone taking a shower next door, a shower which lasted 1.5 hours? Fortunately the noise stopped before 2AM.A lot of reviews below said that this hotel is cheap, but not for our stay which was on a Saturday night. Also, they did not give us enough towels and shampoo. Maybe we should have asked for more but they did not told us to ask. The room is also too small for 2 queen beds.The up side is that this hotel is clean. That is why I give it two points instead of one.More</t>
   </si>
   <si>
+    <t>Richard H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r547096549-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but...First, the motel is not just clean, it is spotless. Clean sheets, plenty of white towels, new black out drapes and carpets, new terrazzo bathroom flooring. Didn't get a chance to try the tiny hot tub and pool but it appeared both were being maintained. Desk clerk was a bit gruff but helpful when I found I had left home without pen and paper needed to revise a speech I had to give, supplying me with both. The "hidden advantages" of its location are considerable! Just 3 doors to the right as you exit the parking lot is THE BAKER, a wonderful bakery turned cafe- as I was enjoying their killer omelette, I was startled to see a baker removing a tray of freshly baked dinner rolls from an oven right inside the cafe! They do Bfast and lunch only, close at 3:00, and also do catering. Breakfast items include a basket of their freshly baked bread. In the same mini mall, for you business travelers, there is an independent print and copy store. Very close is a Chinese restaurant, and a seafood restaurant, called SOMETHING FISHY. Had meals in both places, but not enough to make a judgement. Now for some negatives, certainly not disqualifying for your patronage. First, this is obviously an older hostelry that all the cleaning and buffing can't overcome. It is located on probably the busiest street in the Valley area of Los Angeles, but did not prevent me from having a good nights sleep. One thing the management can do to improve the image is simply drop the FREE CONTINENTAL BREAKFAST- placing a few muffins on a small table, with a pot of coffee, with two chairs in the tiny lobby, makes all involved in running the place look foolish. Richard HurleyMore</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r540556704-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>AuthorCMelanson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r500075330-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car...Everyone who knows me knows I HATE to give a bad review, but I also feel an obligation to be honest. I arrived at this hotel after day 3 of driving 12+ hours. I was tired and very happy to have reached my destination, driving from Ontario to LA for a book signing. I had a ton of stuff with me in a very small Yaris. Feeling very tired, I arrived at the hotel and was ready to relax. Upon check-in, I explained to the man behind the desk my condition and let him know I'd hurt my knee before leaving home (it was wrapped and very swollen) when he gave me a room on the second floor and informed me there was no elevator. I asked if there was anything on the first floor but was only offered the second-floor room. I had to lug my suitcase and several boxes full of books up two flights of concrete steps outside in the heat. All of you who know me closely know why this was a huge problem for me, and I explained that to him. He said he would help with my luggage, but there were people behind me checking in and there were no other offers of help, even though I struggled with all the boxes up and down the steps, going right past the office. I couldn't leave all my books and promo items in the car as I was going to Six Flags the next day and didn't want to take the chance of a break-in at the park. The room itself was okay. It was a little on the small side, especially to other rooms I stayed in the other 10 nights. The bed was the least comfortable of the hotels I stayed in, but it wasn't horrible. I did sleep, but had a little hip pain and tossed some. There was a fridge which is always a plus, but no coffee maker, which I don't like, but I should've made sure. The fact that they don't provide for people with disabilities (I saw one room by the office with a wheelchair symbol on it, but like I said, when I explained my situation no accommodations were made and I did suffer for it).I felt too tired to go down to the pool and just had a pizza in the room the first night. The place is quiet, but the tv was horrible. It kept scrambling and cutting out on certain channels (even the local ones) and each one would take forever to load.I did go down and get coffee in the office on the second day and it was very good coffee. The man behind the desk was very nice and we did chat some, but I would still never stay here again because of the physical struggle. The room was clean and there is a burger place next door. A Starbucks is close by and a pet store and my new favorite grocery store in the world, Sprouts. So many healthy snacks there.I ate grass fed beef jerky and organic coconut cookie treats for dinner :)On the second day when I needed to check out and move hotels, I was again carting heavy boxes down the stairs with no help. Even though the location was pretty good, the room clean and reasonably comfortable, the lack of help I received when I really needed it would keep me from EVER staying at this hotel again.More</t>
   </si>
   <si>
+    <t>Lois M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r488875738-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>Great bargain for the price.  I would only recommend for a couple of days stay.  The staff is very friendly and accommodating and the room was very clean and cleaned well each day.  There is no hair dryer or iron in the room but you can get them at the front desk.  The room is very dreary.  It needs updating and more lighting.  It has a small fridge and microwave.  The wifi, though free, is spotty at best.  But, it was better than none.  The parking is a bit tight, we worried each night that we would have a spot to park in.  There is no breakfast but there is coffee and muffins at the front desk and the coffee is excellent!  There was some commotion outside the rooms one night and we did see some things that we thought were inappropriate.  We would return for one or two nights and only during the week.    The rating I am giving is for the staff and the cleanliness.More</t>
   </si>
   <si>
+    <t>Robyn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r486596048-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>65woody</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r450967417-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -304,6 +325,9 @@
   </si>
   <si>
     <t>We booked this place via an app on the night of booking as we had miscalculated the distances involved when travelling the coast road in California.  That's an easy thing to do! The check in was easy.  The room was clean and did its job as a comfortable place to rest for 2 weary travellers.  It's located well as there are plenty of shops and restaurants nearby.  The breakfast was a cup of coffee and a sticky bun but that was not a problem as sometimes less is more when you are on a US type diet whilst on the road. There was a small jacuzzi in the centre part of this motel.  If only we had the time to use it- nice little add on though. More</t>
+  </si>
+  <si>
+    <t>John_Setrak</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r448287824-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
@@ -334,6 +358,9 @@
 It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff...Well, looks like the secret is out, kind of...  When I first started staying here many years ago, it was a hidden gem.  I always visit in December to visit Los Angeles and I have friends and family in the valley, so this location is excellent.  It is considerably cheaper than other hotels/motels in the area.  Or it was, anyway.  Now it's not among the cheapest but it's still less expensive than other GOOD hotels/motels.  Seems the only thing you can get cheaper or at the same price level are places in less-than-desirable areas and places that are not so well kept.Way back when, I could reserve several nights just day or few days before arrival.  The past several years that is impossible - I have to book this place weeks in advance to have a chance at getting the 4-5 nights I typically stay.  I think people have caught on that this is one of the absolute best values you can find.It is a motel - "exterior corridors", so your room opens to the outdoors.  However, the motel is laid out so that doors open to the inside of the complex and not to a parking lot or street.  No elevator (I don't believe) so I had to carry my bags up but it's only two levels.  They have a pool and hot tub that are small and cute, in the center of the complex.  The staff are courteous - not overly friendly but courteous and efficient.  The prices are great.  The rooms are simple, spacious, very clean and fully functional - I don't ask for more than this.  My stay is always very comfortable here.  The parking is adequate - a little tight but it's fine.  It is a very easy and convenient place to stay.The location is excellent.  Woodland Hills is such a nice little town and there are many stores and restaurants that you can walk to.  Lots of good restaurants, actually.  There is a burger place that is practically part of this motel, and it is very good (Boulevard Burgers). It is a nice suburban town and feels very safe to me, and I've stayed there many times.  Wonderful location.Rooms are simple but nice.  Flat screen TV with lots of channels (I'm not there to watch TV but I get plenty to watch in my downtime).  Comfortable beds and bedding.  Simple toiletries are provided - somewhat nicer than "basic".  Fridge and microwave in the room are very helpful - I keep my fridge stocked with water which comes in very handy.  Water pressure in shower is good, shower head is very low - I'm 5'7" and have to dip my head to get under the shower but it's easy enough.  Free WiFi was adequate - a few times very slow, but mostly it was normal, quick.If you want comfortable, simple, clean accommodations in the Valley then this is the place to be.  Convenient location on a (somewhat) quiet part of Ventura Blvd, easy to get around from there.  It is my favorite place to stay while visiting.  If I needed more in the way of amenities I would look elsewhere and I would plan on paying considerably more ($50+ per night).  But this is a perfect, simple, clean, comfortable place.  They offer coffee and muffins in the morning - I drink the coffee and skip the muffins (they're not that good, in my opinion) but that's fine because I can pick up a cheap pastry somewhere else for the value I'm getting by staying here.I would recommend it to anyone, just with the caveat that you set your expectations for a no-frills place.  They are the best at being what they are.  They do it perfectly.  I look forward to my next visit.More</t>
   </si>
   <si>
+    <t>Claudia G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r446566045-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -349,6 +376,9 @@
     <t xml:space="preserve">This hotel was nice, clean room, a bit of a chemical smell when I got into the room, I let it air out and was fine after. There were guests in the hot tub enjoying the cold weather, I opted to look for food and found an assortment of restaurants on Ventura Blvd within walking distance, including 2 supermarkets. The staff was very friendly and helpful, will definitely stay here again. </t>
   </si>
   <si>
+    <t>GillyatWokingham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r428753380-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>motorcity70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r419002231-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -382,6 +415,9 @@
     <t>The property is reasonably maintained and kept clean. The room had what was expected and the beds were comfortable enough. HBO and ESPN are offered, the other channels are over the air, but since Los Angeles has a wide array of subchannels, there is a good selection. An outdoor pool and hot tub are available. Breakfast is limited to coffee and muffins. The service was competent, not exactly friendly. A reasonable, budget friendly stay if on the NW side of LA.</t>
   </si>
   <si>
+    <t>Jollyone333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r394041949-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>wineloverlisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r326000318-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -418,6 +457,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Swissglider2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r319340598-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -436,6 +478,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>CarlosVent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r299511929-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -454,6 +499,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>AylesburyNorwich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r286099592-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -475,6 +523,9 @@
     <t>Stayed here for two nights between Las Vegas and Palm Springs.  Pretty basic but clean and comfortable.  Further from LA than I expected in quite a nice suburb but with not much in the way of restaurants.  Ate at a nearby Chinese which was very nice and reasonably priced.Breakfast coffee and muffins not really to my taste but there is a good bakery nearby whose coffee is better and the French pastries are fresh out of the oven.Our rooms had been paid for in advance by our travel company but reception were adamant that they had only been reserved but not paid for and insisted that we paid.  However an e mail to our agent and they made some calls, resulted in a refund and an apology.The pool is very small but is ok to cool off in.  There is also a small spa and some poolside seating.If you are looking for cheap and cheerful accommodation in the LA vicinity with parking, then I would recommend this motel.More</t>
   </si>
   <si>
+    <t>Rhianna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r271550931-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -493,6 +544,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Faye G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r265338057-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -514,6 +568,9 @@
     <t>We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my...We were driving up from the OC to LA for a concert and didn't want to make the long drive back late at night so read the reviews, and they were in the middle, so figured for one night, it would be ok. AAA rates-total for a room with 2 Queens, $87. It's under the Wyndham umbrella, so I it would be nicer than a Motel 6, put pretty much on par. The room was very clean, but had an over-powering scent. We had to open the windows and try to clear out the smell. I found out later, after we told the front desk about all the ants, that they had recently fumigated the outside which they thought must have driven ants inside. I think they just have an ant problem and the smell was pesticide, which didn't make me too happy. The rooms looks like they've been upgraded recently in as far as the sink counter was granite, the floors a nice marble tile, bedspreads look new and carpet was ok. The cute tiny little pool and spa were just that, cute. We didn't use it, but the gate was right outside our room. We had 109. Now, the worst part-the bed was like concrete. I did not sleep at all. If I was on one side or the other, I could only be like that 5 min as the pain shot through my hips and down my legs. Being on my back was a tiny bit better, but really, they needs pads. I am very spoiled by the Wynham "heavenly" beds that other brands of theirs carry and why I thought this place would have them, was beyond me. I must have been misled somewhere along the line. For this reason alone, I would never recommend this property. My husband who can generally tolerate any bed, said never again as well. The "continental breakfast" was a pot of coffee on a burner and 4 muffins to chose from...that was it. Good thing, there are lots of places close by. Wi-fi was intermittent at best, though free. I turned it off as I have free data and the time it spent searching for a signal was annoying. Location is good, as just off the 101.More</t>
   </si>
   <si>
+    <t>BubblyTripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r230926285-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -532,6 +589,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>hazelmo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r228876636-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t>09/14/2014</t>
   </si>
   <si>
+    <t>Gustav B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r228378901-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -553,6 +616,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>kelly20850</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r225799735-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -568,6 +634,9 @@
     <t>Chose this decrepit hotel for its location -- bad mistake!  The room was tiny, dark, and in dire need of repaint and remodeling.  Hello 1960's!  To make matters worse, the stsff wasunpleasant and unhelpful. No wonder they require full payment in advance (does any other hotel in America have such a requirement?) --wouod anyone ever pay for this place otherwise?  And there is a puddle near my home that is larger than what they laughingly call "the pool."I suggest staying almost anywhere else.</t>
   </si>
   <si>
+    <t>Kevin L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r225316498-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -577,6 +646,9 @@
     <t>08/29/2014</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r223651608-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -586,6 +658,9 @@
     <t>08/22/2014</t>
   </si>
   <si>
+    <t>Joan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r206674427-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -598,6 +673,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Barbara S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r199947140-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -610,6 +688,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Bruce N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r196199413-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -628,6 +709,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>LisaO471</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r174846575-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -646,6 +730,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Susan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r164640220-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -664,6 +751,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>HAROLD R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r162135899-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -685,6 +775,9 @@
     <t>We were traveling on our way to Camarillo, California and thought we would book ahead. Using a link from another site, I booked a room at the Knights Inn in Woodland Hills. It was easy to find, clean, cheap, and gave easy access to coffee shops and restaurants. But three things were negatives. One - the room was really small and out dated. Two - the outside wall and doorway seemed paper thin and we were awakened by loud noise during the night. Three - the pool was in poor condition - actually totally in disrepair. Would I stay there again? Yes but only if my budget dictated cheap motels.More</t>
   </si>
   <si>
+    <t>netllama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r148108720-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -706,6 +799,9 @@
     <t>Spent two nights here in Dec 2012.  The location is very convenient to the 101 freeway, and about 30 minutes from west LA &amp; Hollywood (assuming traffic isn't horrible).  The room was clean, and in good condition (although a bit dated as a few others have noted).  Check-in &amp; check-out was fast &amp; efficient.  The free wifi worked well (username/password was on a slip of paper in the room).  TV was limited to mostly basic cable channels (not that I care, i didn't watch it much).  The bed was fairly comfortable, but nothing fancy.  It was a bit noisy at night, as the property is not set back from the street at all.  The "free breakfast" was the only disappointment.  It consisted of coffee, fake orange juice (tasted like a Hi-C juice packet), and some huge, tasteless muffins.More</t>
   </si>
   <si>
+    <t>krolikv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r124280386-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -727,6 +823,9 @@
     <t>It's an old property, but rather well kept. The room (mine was on a second floor) was VERY clean. And so was the bathroom. The room is small, but I did not care, since I stayed here only for 1 night. There is a mini-fridge (which is so small, it reminds me of a cube) and a microwave in a room, which is very convenient. The TV is old, but I did not care. However, 2 out of 3 lightfixtures did not work in a room (bad bulbs?). There was no shampoo in a shower/bathtub, only soap. Did not care much, since I always bring my own toiletries. In my opinion, the hotel needs major renovation in terms of new double pane windows and newer TV/phones/fixtures. But if you stay here just for the night - it's ok.My only complain - the mattress was rather hard, and pillows were hard and very thin. Check in/out was a breeze. There is a free WiFi - just ask the receptionist for the password. Check out Japanese sushi restaurant next door to the hotel - Tatsuki - I swear, it's the best sushi place in LA. And prices are very inexpensive.More</t>
   </si>
   <si>
+    <t>SeigoMark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r121596033-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -745,6 +844,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>steviez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r99141883-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -766,6 +868,9 @@
     <t>cute enough little hotel. stayed with 20 yo son in Feb-Mar 2011. cute courtyard with small pool and hot tube.  not open in winter?? Room was average. shower tub , toilet seperate from sink.  hot water ok most mornings , nearly ran out on 1st day.  has tv/remote, no radio or clock.  had small fridge and microwave, both on extension cord that was pobobly a fire hazzard. reasonably close to west la attractions. 24 mile to Venice Beach and Santa Monica. 19 mi to Hollywood, 15 mi to Getty museum and Universal Studios. 19 mi to Hollywood.  Of course all travel times are outrageous compared to what I'm use to in Michigan. Maid service was good, we had no real need to find out if they would be helpful in a needy situation.  Free wireless worked fine. business/residential neighborhood was not scary.  very close to 101.More</t>
   </si>
   <si>
+    <t>SanDiegoZix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r77479485-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -782,6 +887,9 @@
   </si>
   <si>
     <t>August 2010</t>
+  </si>
+  <si>
+    <t>gemello1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d1007413-r37745160-Knights_Inn_Woodland_Hills-Los_Angeles_California.html</t>
@@ -1307,43 +1415,47 @@
       <c r="A2" t="n">
         <v>24812</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1363,50 +1475,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>24812</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1420,50 +1536,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>24812</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1483,50 +1603,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>24812</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1544,50 +1668,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>24812</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1607,50 +1735,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>24812</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1664,50 +1796,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>24812</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1721,50 +1857,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>24812</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1782,50 +1922,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>24812</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1839,50 +1983,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>24812</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1902,50 +2050,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>24812</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1965,50 +2117,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>24812</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2026,50 +2182,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>24812</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2089,50 +2249,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>24812</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2146,50 +2310,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>24812</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2207,50 +2375,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>24812</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2268,50 +2440,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>24812</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2325,50 +2501,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>24812</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2386,50 +2566,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>24812</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2443,35 +2627,39 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>24812</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
@@ -2479,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2503,36 +2691,37 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>24812</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -2540,10 +2729,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2564,51 +2753,52 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24812</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -2628,35 +2818,39 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>24812</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>204</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
@@ -2664,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2688,36 +2882,37 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24812</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -2725,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2749,36 +2944,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>24812</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="J26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -2786,10 +2982,10 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2810,36 +3006,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>24812</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="J27" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -2847,10 +3044,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -2871,51 +3068,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>24812</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2939,50 +3137,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>24812</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3006,50 +3208,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>24812</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>236</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3073,50 +3279,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>24812</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="J31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3140,50 +3350,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>24812</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>251</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="J32" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="K32" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3207,50 +3421,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>24812</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="J33" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -3274,50 +3492,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>24812</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3341,50 +3563,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>24812</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>274</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="J35" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="K35" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3408,50 +3634,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>24812</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="O36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3475,50 +3705,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>24812</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>289</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3542,7 +3776,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
